--- a/SCW/result.xlsx
+++ b/SCW/result.xlsx
@@ -144,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,71 +160,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -544,7 +487,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,18 +498,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -635,66 +578,50 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.75449999999999995</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.67769999999999997</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.83160000000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.6159</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.75029999999999997</v>
+      <c r="C8" s="3">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.75749999999999995</v>
       </c>
       <c r="E8" s="4">
-        <v>0.91510000000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.64939999999999998</v>
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.64780000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.83879999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.72640000000000005</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.86660000000000004</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.60440000000000005</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -772,24 +699,24 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
-        <v>1.12E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.19E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.1000000000000002E-2</v>
+      <c r="C17" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.9699999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -803,13 +730,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4:C9">
-    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="top10" dxfId="5" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E9">
-    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F9">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>

--- a/SCW/result.xlsx
+++ b/SCW/result.xlsx
@@ -144,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,14 +160,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -487,7 +544,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,18 +555,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -578,50 +635,66 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.6159</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.83779999999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.75749999999999995</v>
+      <c r="C8" s="2">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.75029999999999997</v>
       </c>
       <c r="E8" s="4">
-        <v>0.91420000000000001</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.64780000000000004</v>
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.64939999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="4">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.60440000000000005</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -699,24 +772,24 @@
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3.9699999999999999E-2</v>
+      <c r="C17" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.19E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -730,13 +803,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4:C9">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D9">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E9">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F9">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>

--- a/SCW/result.xlsx
+++ b/SCW/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Algorithm</t>
     <phoneticPr fontId="1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>usps</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ijcnn1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -75,6 +71,21 @@
   </si>
   <si>
     <t>std</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mushrooms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人工データ</t>
+    <rPh sb="0" eb="2">
+      <t>ジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>svmguide3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -82,6 +93,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,10 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,14 +501,18 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -502,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -514,107 +532,123 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.7964</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.70930000000000004</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.9073</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.89970000000000006</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.94410000000000005</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.79349999999999998</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.75900000000000001</v>
       </c>
       <c r="D5" s="4">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.87749999999999995</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.91920000000000002</v>
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.95050000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.76370000000000005</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.87829999999999997</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.91320000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.95120000000000005</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.95230000000000004</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>0.83779999999999999</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="D8" s="3">
-        <v>0.75749999999999995</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="E8" s="4">
-        <v>0.91420000000000001</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0.64780000000000004</v>
+        <v>0.96120000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="4">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.93200000000000005</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -629,97 +663,113 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="D13" s="2">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>8.3999999999999995E-3</v>
+      <c r="D13" s="3">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.46E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2.12E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>6.7000000000000002E-3</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>7.7999999999999996E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="D17" s="3">
-        <v>3.0099999999999998E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E17" s="3">
-        <v>1.6999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>3.9699999999999999E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.41E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
